--- a/biology/Botanique/Bleuet_à_feuilles_étroites/Bleuet_à_feuilles_étroites.xlsx
+++ b/biology/Botanique/Bleuet_à_feuilles_étroites/Bleuet_à_feuilles_étroites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Bleuet_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium angustifolium · Airelle à feuilles étroites, Bleuet à feuille dentelée, Bleuet nain
 Le Bleuet à feuilles étroites (Vaccinium angustifolium Aiton), aussi connu sous divers autres noms, est une espèce de plantes à fleurs de la famille des Ericaceae. C'est un arbrisseau de 30 cm, étalé et très ramifié, à petits fruits comestibles, croissant dans l'est de l'Amérique du Nord. 
-Le fruit de l'arbuste, le bleuet, est le symbole de Dolbeau-Mistassini, dans la région du Lac-Saint-Jean au Québec, ville considérée comme la « capitale mondiale du bleuet ». Il est aussi le fruit symbole de l'État du Maine aux États-Unis. Il ne faut pas confondre l'airelle à feuilles étroites (bleuet) avec la myrtille. Le nom bleuet se réfère aux espèces qui ne poussent qu'en Amérique du Nord, alors que le nom de myrtille s'applique aux espèces qui poussent en Europe et en Asie[1]. Au Canada, les espèces proches sont Vaccinium myrtilloides ou airelle fausse-myrtille, et Vaccinium corymbosum ou airelle en corymbe[2], dont les cultivars constituent aussi les variétés à gros fruits cultivées au Canada et aux États-Unis.
-Véritable tradition culinaire québécoise, l'usage des bleuets pour des fins alimentaires remonte aux Amérindiens. On trouve des bonbons, du thé, des biscuits, des chocolats[3] et des tartes préparés avec des bleuets.
+Le fruit de l'arbuste, le bleuet, est le symbole de Dolbeau-Mistassini, dans la région du Lac-Saint-Jean au Québec, ville considérée comme la « capitale mondiale du bleuet ». Il est aussi le fruit symbole de l'État du Maine aux États-Unis. Il ne faut pas confondre l'airelle à feuilles étroites (bleuet) avec la myrtille. Le nom bleuet se réfère aux espèces qui ne poussent qu'en Amérique du Nord, alors que le nom de myrtille s'applique aux espèces qui poussent en Europe et en Asie. Au Canada, les espèces proches sont Vaccinium myrtilloides ou airelle fausse-myrtille, et Vaccinium corymbosum ou airelle en corymbe, dont les cultivars constituent aussi les variétés à gros fruits cultivées au Canada et aux États-Unis.
+Véritable tradition culinaire québécoise, l'usage des bleuets pour des fins alimentaires remonte aux Amérindiens. On trouve des bonbons, du thé, des biscuits, des chocolats et des tartes préparés avec des bleuets.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Bleuet_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique : Vaccinium angustifolium Aiton, 1789[4]
-Nom accepté, recommandé ou typique en français : Bleuet à feuilles étroites[5],[6],[7]
-Autres noms vulgaires (vulgarisation scientifique) : Airelle à feuilles étroites[5],[6], Airelle de Pennsylvanie[5],[6], Bleuet à feuille dentelée[8] ou Bleuet feuille-dentelée[5] ou encore Bleuet nain[9],[5],[6]
-Noms vernaculaires (langage courant), pouvant désigner aussi d'autres espèces, notamment au Québec : bleuet sauvage, bleuetier[10] ou encore bleuet comme le fruit[11].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique : Vaccinium angustifolium Aiton, 1789
+Nom accepté, recommandé ou typique en français : Bleuet à feuilles étroites
+Autres noms vulgaires (vulgarisation scientifique) : Airelle à feuilles étroites Airelle de Pennsylvanie Bleuet à feuille dentelée ou Bleuet feuille-dentelée ou encore Bleuet nain
+Noms vernaculaires (langage courant), pouvant désigner aussi d'autres espèces, notamment au Québec : bleuet sauvage, bleuetier ou encore bleuet comme le fruit.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Bleuet_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles caduques de 2 à 4 cm de long sont angustifoliées, finement dentées, luisantes, vert foncé et deviennent rouges en automne.
 Au printemps, apparaissent les fleurs campanulées de 5 à 10 mm, blanches ou rosées, parfois réunies en grappes pendantes de 3 à 5 cm de long.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Bleuet_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,11 +597,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1789 par le botaniste britannique d'origine écossaise William Aiton (1731-1793).
-Liste des variétés et formes
-Selon Tropicos                                           (24 juin 2013)[12] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1789 par le botaniste britannique d'origine écossaise William Aiton (1731-1793).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés et formes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (24 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Vaccinium angustifolium var. angustifolium
 variété Vaccinium angustifolium var. hypolasium Fernald
 variété Vaccinium angustifolium var. integrifolium Lepage
@@ -599,45 +652,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il affectionne les sols froids, très acides, tourbeux, sablonneux et humides. Il adore le soleil. Le plant du bleuet sauvage entre en floraison au mois de juin, et ses fruits atteignent leur maturité début août.
-Le mélampyre linéaire est considéré comme mauvaise herbe dans la culture de cette plante[13].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+          <t>Bleuet_à_feuilles_étroites</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,47 +673,155 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les sols froids, très acides, tourbeux, sablonneux et humides. Il adore le soleil. Le plant du bleuet sauvage entre en floraison au mois de juin, et ses fruits atteignent leur maturité début août.
+Le mélampyre linéaire est considéré comme mauvaise herbe dans la culture de cette plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Intérêt médical</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bleuet arrive en tête de l'indice ORAC[14] des fruits et légumes aux effets antioxydants. De sérieuses études ont constaté des effets positifs sur la mémoire. Le bleuet préviendrait aussi la fatigue oculaire, améliorerait la vision et réduirait le cholestérol dans certains cas.
-Cancer
-Selon les docteurs Richard Béliveau et Denis Gingras, l'efficacité du bleuet pour lutter contre le cancer a été soulignée par des recherches scientifiques très récentes[Lesquelles ?]. Selon ces derniers, « les données scientifiques récentes suggèrent qu'une classe de molécules particulièrement abondantes dans les bleuets et myrtilles, les anthocyanidines, pourrait être responsable des effets antiangiogéniques de ces fruits et, de ce fait, contribuer à limiter la croissance des tumeurs ».[réf. souhaitée]
-Diabète
-Les travaux d'une équipe de chercheurs canadiens[15] semblent confirmer les propriétés antidiabétiques du bleuet. Dans le cadre de ces travaux menés en laboratoire, les bleuets sauvages ont été transformés en extraits à partir de quatre parties, soit les feuilles, le fruit, la tige et les racines.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bleuet arrive en tête de l'indice ORAC des fruits et légumes aux effets antioxydants. De sérieuses études ont constaté des effets positifs sur la mémoire. Le bleuet préviendrait aussi la fatigue oculaire, améliorerait la vision et réduirait le cholestérol dans certains cas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Intérêt médical</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les docteurs Richard Béliveau et Denis Gingras, l'efficacité du bleuet pour lutter contre le cancer a été soulignée par des recherches scientifiques très récentes[Lesquelles ?]. Selon ces derniers, « les données scientifiques récentes suggèrent qu'une classe de molécules particulièrement abondantes dans les bleuets et myrtilles, les anthocyanidines, pourrait être responsable des effets antiangiogéniques de ces fruits et, de ce fait, contribuer à limiter la croissance des tumeurs ».[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Intérêt médical</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diabète</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux d'une équipe de chercheurs canadiens semblent confirmer les propriétés antidiabétiques du bleuet. Dans le cadre de ces travaux menés en laboratoire, les bleuets sauvages ont été transformés en extraits à partir de quatre parties, soit les feuilles, le fruit, la tige et les racines.
 Le fruit aurait la propriété de stimuler la production d'insuline en régénérant les cellules du pancréas. Un résultat intéressant puisque aucun médicament sur le marché ne produit cet effet.
 Au Canada, l'extrait de bleuet est déjà utilisé, sous forme de supplément, comme traitement complémentaire du diabète de type 2.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a une grande importance économique dans l'est de l'Amérique du Nord et notamment dans la région du Lac Saint-Jean au Québec, où l'on récolte les bleuets à l'état sauvage.
 Les exportations du bleuet vers le Japon ont explosé depuis que des études confirment ses effets antioxydants. Selon Jean-Eudes Senneville, responsable des Bleuets sauvages du Québec, « les Japonais mangeaient entre 4 et 5 millions de livres de bleuets par année en 1990. Ils en ont consommé 10 fois plus en 2006 et considèrent le fruit comme un alicament ».
@@ -700,63 +829,67 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, la production de bleuets sauvages du Québec a atteint 70 millions de livres[16]. De cela, 55 millions ont été produites à partir de bleuetières spécialement aménagées, et 15 millions ont été récoltées en forêt. La grande majorité de ces bleuets, soit 67,5 millions de livres, a été mise en marché sous diverses formes transformées, et notamment sous forme de bleuets sauvages surgelés.
-Les chiffres de production pour le Canada comprennent les espèces sauvages semi-cultivées et l'espèce cultivée (V. corymbosum - highbush). La production canadienne atteint 163 000 tonnes en 2014[17]. Les autres producteurs importants sont les Etats-Unis et le Chili.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, la production de bleuets sauvages du Québec a atteint 70 millions de livres. De cela, 55 millions ont été produites à partir de bleuetières spécialement aménagées, et 15 millions ont été récoltées en forêt. La grande majorité de ces bleuets, soit 67,5 millions de livres, a été mise en marché sous diverses formes transformées, et notamment sous forme de bleuets sauvages surgelés.
+Les chiffres de production pour le Canada comprennent les espèces sauvages semi-cultivées et l'espèce cultivée (V. corymbosum - highbush). La production canadienne atteint 163 000 tonnes en 2014. Les autres producteurs importants sont les Etats-Unis et le Chili.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bleuet_à_feuilles_étroites</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleuet_%C3%A0_feuilles_%C3%A9troites</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Transformation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bleuets sont récoltés soit par des producteurs dans des bleuetières ou par des citoyens qui les récolteront en forêt.
 Par la suite, les bleuets sont acheminés à un point d'achat puis envoyés à l'usine de transformation, communément appelée usine de congélation. On en trouve à Normandin, Mistassini, Dolbeau, Saint-Félicien, New-Port et Saint-Bruno, les trois dernières appartenant à l'entreprise de commercialisation Bleuets Sauvages du Québec.
